--- a/environment/sensitivities/Pathways to Net Zero - Exact 1-Year Shifting No Double-Deployment - Total capex.xlsx
+++ b/environment/sensitivities/Pathways to Net Zero - Exact 1-Year Shifting No Double-Deployment - Total capex.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Work\Research\SAPIENS@SPA-QMUL\TuringProject\RangL-NetZeroTech@MSTeams\General\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81941197-C985-4314-877D-4C6ED55CF5EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A064F42D-692A-48EF-83FA-2E43EDA21F89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="15540" xr2:uid="{1E70462E-4CB0-4977-A6FB-CAE40DB36717}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34560" windowHeight="15540" xr2:uid="{B821EE31-2048-42D8-8057-8A80C37C75A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE38999-8F8B-4B23-B52B-A13794C8671F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A037DA8-007C-4F35-9BA4-2AE435B2BD78}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -558,97 +558,97 @@
         <v>2</v>
       </c>
       <c r="D2" s="4">
-        <v>7964.7441965973521</v>
+        <v>9996.1802109232158</v>
       </c>
       <c r="E2" s="4">
-        <v>8902.7893227596796</v>
+        <v>10337.42880619616</v>
       </c>
       <c r="F2" s="4">
-        <v>9578.7674248762578</v>
+        <v>11251.158026241977</v>
       </c>
       <c r="G2" s="4">
-        <v>10645.498402555813</v>
+        <v>9150.9433751602101</v>
       </c>
       <c r="H2" s="4">
-        <v>8602.5795078570172</v>
+        <v>8604.7241095565896</v>
       </c>
       <c r="I2" s="4">
-        <v>8485.5539980573903</v>
+        <v>6596.8199411359947</v>
       </c>
       <c r="J2" s="4">
-        <v>6536.988059389153</v>
+        <v>6638.5086766273898</v>
       </c>
       <c r="K2" s="4">
-        <v>6538.903039271645</v>
+        <v>6579.7987188229608</v>
       </c>
       <c r="L2" s="4">
-        <v>6498.6624423054454</v>
+        <v>5446.2508487533078</v>
       </c>
       <c r="M2" s="4">
-        <v>5887.5026054514401</v>
+        <v>5288.6939738602196</v>
       </c>
       <c r="N2" s="4">
-        <v>5962.8446124733418</v>
+        <v>3902.5961006952762</v>
       </c>
       <c r="O2" s="4">
-        <v>4698.1998320523098</v>
+        <v>3920.5532453150945</v>
       </c>
       <c r="P2" s="4">
-        <v>3955.689186520739</v>
+        <v>3955.9004194149011</v>
       </c>
       <c r="Q2" s="4">
-        <v>3997.4153206752908</v>
+        <v>3997.6330012897502</v>
       </c>
       <c r="R2" s="4">
-        <v>4045.472926101912</v>
+        <v>4045.6948583918588</v>
       </c>
       <c r="S2" s="4">
-        <v>4108.3980646751888</v>
+        <v>4108.6213687890431</v>
       </c>
       <c r="T2" s="4">
-        <v>4179.1650797047578</v>
+        <v>4179.3847687297166</v>
       </c>
       <c r="U2" s="4">
-        <v>4258.7562345302222</v>
+        <v>4258.9683020458515</v>
       </c>
       <c r="V2" s="4">
-        <v>4601.1006684096719</v>
+        <v>4601.2992917750844</v>
       </c>
       <c r="W2" s="4">
-        <v>5102.6461560452399</v>
+        <v>5102.8241745830101</v>
       </c>
       <c r="X2" s="4">
-        <v>5732.2240503065887</v>
+        <v>5732.3727324716956</v>
       </c>
       <c r="Y2" s="4">
-        <v>6046.6289787901369</v>
+        <v>6046.7377561118356</v>
       </c>
       <c r="Z2" s="4">
-        <v>6370.2550701769942</v>
+        <v>6370.3112347253063</v>
       </c>
       <c r="AA2" s="4">
-        <v>6703.6463175025692</v>
+        <v>6703.6346798791756</v>
       </c>
       <c r="AB2" s="4">
-        <v>7047.3881493652789</v>
+        <v>7047.2906548054107</v>
       </c>
       <c r="AC2" s="4">
-        <v>7402.105785270398</v>
+        <v>7401.9010865484015</v>
       </c>
       <c r="AD2" s="4">
-        <v>7768.4596724611893</v>
+        <v>7768.1226601829667</v>
       </c>
       <c r="AE2" s="4">
-        <v>8147.1367179038116</v>
+        <v>8146.6380118330471</v>
       </c>
       <c r="AF2" s="4">
-        <v>7772.1256651911608</v>
+        <v>7771.4310750614522</v>
       </c>
       <c r="AG2" s="4">
-        <v>7596.9066135152443</v>
+        <v>7595.9765851570082</v>
       </c>
       <c r="AH2" s="4">
-        <v>4765.6573126721096</v>
+        <v>4764.4463864408744</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -662,97 +662,97 @@
         <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>7964.3499498257879</v>
+        <v>9996.1802109232121</v>
       </c>
       <c r="E3" s="4">
-        <v>8965.7201503166416</v>
+        <v>10363.239393158467</v>
       </c>
       <c r="F3" s="4">
-        <v>9625.0644958971498</v>
+        <v>11297.455097262868</v>
       </c>
       <c r="G3" s="4">
-        <v>10716.101389110569</v>
+        <v>9221.546361714969</v>
       </c>
       <c r="H3" s="4">
-        <v>8700.6400743714294</v>
+        <v>8702.7847084809673</v>
       </c>
       <c r="I3" s="4">
-        <v>8576.5679883518915</v>
+        <v>6687.8339961961537</v>
       </c>
       <c r="J3" s="4">
-        <v>6648.9598345396789</v>
+        <v>6750.4805629987914</v>
       </c>
       <c r="K3" s="4">
-        <v>6676.5468986493488</v>
+        <v>6717.442752471723</v>
       </c>
       <c r="L3" s="4">
-        <v>6663.3658713328723</v>
+        <v>6119.1662826357069</v>
       </c>
       <c r="M3" s="4">
-        <v>7127.2047065494025</v>
+        <v>6729.8893007187589</v>
       </c>
       <c r="N3" s="4">
-        <v>8199.1033874428467</v>
+        <v>6236.8405399262319</v>
       </c>
       <c r="O3" s="4">
-        <v>8006.3688315813506</v>
+        <v>6432.4507625996466</v>
       </c>
       <c r="P3" s="4">
-        <v>6653.7056389971567</v>
+        <v>6653.9049890881997</v>
       </c>
       <c r="Q3" s="4">
-        <v>6889.980842754132</v>
+        <v>6890.1837934022878</v>
       </c>
       <c r="R3" s="4">
-        <v>7141.0610736401914</v>
+        <v>7141.2650343687537</v>
       </c>
       <c r="S3" s="4">
-        <v>7413.2098118223948</v>
+        <v>7413.4115157674669</v>
       </c>
       <c r="T3" s="4">
-        <v>7701.3650571014705</v>
+        <v>7701.5591662693605</v>
       </c>
       <c r="U3" s="4">
-        <v>8006.7054375449452</v>
+        <v>8006.887671842881</v>
       </c>
       <c r="V3" s="4">
-        <v>8583.4272320469045</v>
+        <v>8583.5916314088736</v>
       </c>
       <c r="W3" s="4">
-        <v>9328.3008493035722</v>
+        <v>9328.4403337759541</v>
       </c>
       <c r="X3" s="4">
-        <v>10210.694792144372</v>
+        <v>10210.801041384675</v>
       </c>
       <c r="Y3" s="4">
-        <v>10787.589831229512</v>
+        <v>10787.653170686113</v>
       </c>
       <c r="Z3" s="4">
-        <v>11383.718813423166</v>
+        <v>11383.728116110904</v>
       </c>
       <c r="AA3" s="4">
-        <v>11999.908598706183</v>
+        <v>11999.851215137627</v>
       </c>
       <c r="AB3" s="4">
-        <v>12636.937487828944</v>
+        <v>12636.799221540388</v>
       </c>
       <c r="AC3" s="4">
-        <v>13295.496233478021</v>
+        <v>13295.261386109725</v>
       </c>
       <c r="AD3" s="4">
-        <v>13976.141318785692</v>
+        <v>13975.792837384814</v>
       </c>
       <c r="AE3" s="4">
-        <v>14679.237171076942</v>
+        <v>14678.756941928528</v>
       </c>
       <c r="AF3" s="4">
-        <v>12818.935947543607</v>
+        <v>12818.305296404124</v>
       </c>
       <c r="AG3" s="4">
-        <v>11699.325111202261</v>
+        <v>11698.525590682984</v>
       </c>
       <c r="AH3" s="4">
-        <v>4454.9013751474213</v>
+        <v>4453.9159480525213</v>
       </c>
     </row>
     <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -766,97 +766,97 @@
         <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>7964.3499498257897</v>
+        <v>9996.1802109232121</v>
       </c>
       <c r="E4" s="4">
-        <v>9128.7994315962078</v>
+        <v>10424.736870822924</v>
       </c>
       <c r="F4" s="4">
-        <v>9735.3740016513202</v>
+        <v>11407.764603017042</v>
       </c>
       <c r="G4" s="4">
-        <v>10884.323273992002</v>
+        <v>9389.7682465964008</v>
       </c>
       <c r="H4" s="4">
-        <v>8934.2836372935526</v>
+        <v>8936.4283486245458</v>
       </c>
       <c r="I4" s="4">
-        <v>8793.4220584845843</v>
+        <v>6904.6882206424525</v>
       </c>
       <c r="J4" s="4">
-        <v>6915.7488754640744</v>
+        <v>7017.2698689231056</v>
       </c>
       <c r="K4" s="4">
-        <v>7004.5034143261291</v>
+        <v>7045.399683374666</v>
       </c>
       <c r="L4" s="4">
-        <v>7055.7957475951598</v>
+        <v>6924.3301993856103</v>
       </c>
       <c r="M4" s="4">
-        <v>8456.3912913368949</v>
+        <v>8222.7149135102136</v>
       </c>
       <c r="N4" s="4">
-        <v>10388.829503358804</v>
+        <v>8506.1444026307418</v>
       </c>
       <c r="O4" s="4">
-        <v>11193.782460598391</v>
+        <v>8973.189847151385</v>
       </c>
       <c r="P4" s="4">
-        <v>9484.1991421806961</v>
+        <v>9484.3890921076054</v>
       </c>
       <c r="Q4" s="4">
-        <v>10029.086967374908</v>
+        <v>10029.277795761949</v>
       </c>
       <c r="R4" s="4">
-        <v>10608.395159070593</v>
+        <v>10608.583766017713</v>
       </c>
       <c r="S4" s="4">
-        <v>11223.732380047672</v>
+        <v>11223.914952963454</v>
       </c>
       <c r="T4" s="4">
-        <v>11875.579217285946</v>
+        <v>11875.749858725238</v>
       </c>
       <c r="U4" s="4">
-        <v>12566.563957405941</v>
+        <v>12566.717851763658</v>
       </c>
       <c r="V4" s="4">
-        <v>13552.634226023409</v>
+        <v>13552.764960748795</v>
       </c>
       <c r="W4" s="4">
-        <v>14732.593636521651</v>
+        <v>14732.693851302887</v>
       </c>
       <c r="X4" s="4">
-        <v>16078.310798886625</v>
+        <v>16078.372195807153</v>
       </c>
       <c r="Y4" s="4">
-        <v>17149.049814903632</v>
+        <v>17149.063232286408</v>
       </c>
       <c r="Z4" s="4">
-        <v>18272.180630269035</v>
+        <v>18272.136209689084</v>
       </c>
       <c r="AA4" s="4">
-        <v>19451.268104944316</v>
+        <v>19451.155591229035</v>
       </c>
       <c r="AB4" s="4">
-        <v>20689.874249252571</v>
+        <v>20689.683476901268</v>
       </c>
       <c r="AC4" s="4">
-        <v>21991.458600323844</v>
+        <v>21991.180237662295</v>
       </c>
       <c r="AD4" s="4">
-        <v>23359.261507027069</v>
+        <v>23358.888152875101</v>
       </c>
       <c r="AE4" s="4">
-        <v>24796.161917460071</v>
+        <v>24795.689675839356</v>
       </c>
       <c r="AF4" s="4">
-        <v>20832.063126702509</v>
+        <v>20831.493825390953</v>
       </c>
       <c r="AG4" s="4">
-        <v>18359.119874162265</v>
+        <v>18358.464145661434</v>
       </c>
       <c r="AH4" s="4">
-        <v>3977.8632066450346</v>
+        <v>3977.144719262611</v>
       </c>
     </row>
   </sheetData>
